--- a/data/backbone.xlsx
+++ b/data/backbone.xlsx
@@ -36,10 +36,10 @@
     <t>p2</t>
   </si>
   <si>
-    <t>itr5 + break1 + promotor + break2 + kozak</t>
-  </si>
-  <si>
     <t xml:space="preserve"> + fluoroscence_tag_linker + fluorescence + break3_p1 + enhancer + break3_p2 + bgh + break4 + itr3 + break5 + amp + break6 + puc + break7</t>
+  </si>
+  <si>
+    <t>itr5 + break1 + promoter + break2 + kozak</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -406,7 +406,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" customHeight="1">
@@ -417,7 +417,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1"/>

--- a/data/backbone.xlsx
+++ b/data/backbone.xlsx
@@ -36,10 +36,10 @@
     <t>p2</t>
   </si>
   <si>
-    <t xml:space="preserve"> + fluoroscence_tag_linker + fluorescence + break3_p1 + enhancer + break3_p2 + bgh + break4 + itr3 + break5 + amp + break6 + puc + break7</t>
-  </si>
-  <si>
     <t>itr5 + break1 + promoter + break2 + kozak</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + fluorescent_tag_linker + fluorescence + break3_p1 + enhancer + break3_p2 + bgh + break4 + itr3 + break5 + amp + break6 + puc + break7</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -406,7 +406,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" customHeight="1">
@@ -417,7 +417,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1"/>

--- a/data/backbone.xlsx
+++ b/data/backbone.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9843B63E-6B5D-4979-A0CA-0C9BD172FBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11292" windowHeight="5580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="47">
   <si>
     <t>vector_type</t>
   </si>
@@ -36,17 +48,134 @@
     <t>p2</t>
   </si>
   <si>
-    <t>itr5 + break1 + promoter + break2 + kozak</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + fluorescent_tag_linker + fluorescence + break3_p1 + enhancer + break3_p2 + bgh + break4 + itr3 + break5 + amp + break6 + puc + break7</t>
+    <t>function</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>multi</t>
+  </si>
+  <si>
+    <t>promoter</t>
+  </si>
+  <si>
+    <t>5`ITR + break1 + Promoter + break2 + Kozak_sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Fluorescent_tag_linker + Fluorescent_tag + break3_p1 + Enhancer + break3_p2 + PolyA_signal + break4 + 3`ITR + break5 + Resistance + break6 + pUC_ori + break7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +  PolyA_signal +  2nd_promoter + Fluorescent_tag + break3_p1 + Enhancer + break3_p2 + 2nd_polyA_signal + break4 + 3`ITR + break5 + Resistance + break6 + pUC_ori + break7</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>break1 + Promoter + break2 + Kozak_sequence</t>
+  </si>
+  <si>
+    <t>lentiviral</t>
+  </si>
+  <si>
+    <t>RSV + 5`LTR + break1 + PSI + break2 + RRE + break3 + cPPT + break4 + Promoter + break5+  Kozak_sequence</t>
+  </si>
+  <si>
+    <t>scAAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Fluorescent_tag_linker + Fluorescent_tag + Enhancer + break3  + PolyA_signal + break4 + 3`ITR + break5 + Resistance + break6 + pUC_ori + break7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Enhancer +  PolyA_signal +  2nd_promoter + Fluorescent_tag  + break3 + 2nd_polyA_signal + break4 + 3`ITR + break5 + Resistance + break6 + pUC_ori + break7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Fluorescent_tag_linker + Fluorescent_tag + Enhancer + break5  + PolyA_signal + break6 + 3`ITR + break7 + Resistance + break8 + pUC_ori + break9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Fluorescent_tag_linker + Fluorescent_tag  + Enhancer + break5 + PolyA_signal + break6 + 3`ITR + break7 + Resistance + break8 + pUC_ori + break9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + break5 + break6 + 3`ITR + break7 + Resistance + break8 + pUC_ori + break9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + break8 +  break9 +  3`LTR + break10 + break11 + Resistance +  break12 + pUC_ori + break13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Fluorescent_tag_linker + Fluorescent_tag  + Enhancer + break4 +   PolyA_signal + break5 + pUC_ori + break6 +  Resistance_R_ + break7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + break4 + break5 + pUC_ori + break6 +  Resistance_R_ + break7</t>
+  </si>
+  <si>
+    <t>rnai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Enhancer + break3 +   PolyA_signal + break4 +   2nd_promoter +   break5 +  Fluorescent_tag  + break6 + 2nd_polyA_signal  +  break7 + pUC_ori + break8 +  Resistance_R_ + break9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Fluorescent_tag_linker + Fluorescent_tag  + Enhancer + break3 +   PolyA_signal + break4 + break5 + break6 + break7 + pUC_ori + break8 +  Resistance_R_ + break9</t>
+  </si>
+  <si>
+    <t>mrna</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + break1 + SapI + break2 + pUC_ori + break3 + Resistance_R_ + break4</t>
+  </si>
+  <si>
+    <t>transcription</t>
+  </si>
+  <si>
+    <t>Promoter_ncRNA + break1 + RNAi + Terminator + break2 + Promoter + break3 + Kozak_sequence</t>
+  </si>
+  <si>
+    <t>RSV + 5`LTR + break1 + PSI + break2 + RRE + break3 + cPPT + break4 + Promoter_ncRNA + break5 + RNAi + Terminator + break6 + break7</t>
+  </si>
+  <si>
+    <t>RSV + 5`LTR + break1 + PSI + break2 + RRE + break3 + cPPT + break4 + Promoter_ncRNA + break5 + RNAi + Terminator + break6 + Promoter + break7 + Kozak_sequence</t>
+  </si>
+  <si>
+    <t>5`ITR + break1 + Promoter_ncRNA + break2 + RNAi + Terminator + break3 + break4</t>
+  </si>
+  <si>
+    <t>5`ITR + break1 + Promoter_ncRNA + break2 + RNAi + Terminator + break3 + Promoter + break4 + Kozak_sequence</t>
+  </si>
+  <si>
+    <t>5`ITR + break1 + Promoter_ncRNA + break2 + RNAi + Terminator +  break3 + break4</t>
+  </si>
+  <si>
+    <t>5`ITR + break1 + Promoter_ncRNA + break2 + RNAi + Terminator +  break3 + Promoter + break4 + Kozak_sequence</t>
+  </si>
+  <si>
+    <t>Promoter_ncRNA + break1 + RNAi + Terminator + break2 + break3</t>
+  </si>
+  <si>
+    <t>T7 + 5`UTR + Kozak_sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Fluorescent_tag_linker + Fluorescent_tag + break8 + Enhancer + break9 + PolyA_signal  + break10 +  3`LTR + break11 + Resistance +  break12 + pUC_ori + break13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Fluorescent_tag_linker + Fluorescent_tag + break6 + Enhancer + break7 + break8 + break9 + PolyA_signal + break10 + 3`LTR  + break11 + Resistance +  break12 + pUC_ori + break13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + break6 + Enhancer + break7 +  2nd_promoter + break8 +  Fluorescent_tag + break9 + PolyA_signal  + break10 + 3`LTR + break11 + Resistance +  break12 + pUC_ori + break13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 3`UTR  + PolyA_tail + break1 + SapI + BsiWI + AscI + break2 + pUC_ori + break3 + Resistance_R_ + break4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,13 +184,44 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,23 +236,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -130,7 +300,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -164,6 +334,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -198,9 +369,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -373,83 +545,744 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="126.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" customHeight="1">
-      <c r="A3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1"/>
-    <row r="5" spans="1:3" ht="17.399999999999999" customHeight="1"/>
-    <row r="6" spans="1:3" ht="17.399999999999999" customHeight="1"/>
-    <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1"/>
-    <row r="12" spans="1:3">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -457,12 +1290,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
